--- a/doc/Egypt_Adventure.xlsx
+++ b/doc/Egypt_Adventure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\WA2PEPF000003C8\EXCELCNV\ccafb94d-e9dc-4390-af44-fa3e9476c577\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DEEDBB4-074B-49C5-9D3D-E1357741C538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE2709D4-2F27-4E0C-B012-9F960480B771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{E544A7EE-2328-4946-ACEC-137CBA901C70}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>gra:</t>
   </si>
@@ -80,64 +80,127 @@
     <t>Generowanie losowego środowiska</t>
   </si>
   <si>
+    <t>Każda sesja gry oferuje unikalny układ piramidy, co sprawia, że eksploracja jest świeża i nieprzewidywalna.</t>
+  </si>
+  <si>
     <t>Trwała śmierć / trwałe konsekwencje</t>
   </si>
   <si>
+    <t>Po śmierci gracz traci cały postęp, co zwiększa stawki i zachęca do ostrożnej gry.</t>
+  </si>
+  <si>
     <t>Turowość</t>
   </si>
   <si>
+    <t>Gra jest turowa; najpierw wyświetlany jest świat, następnie gracz wprowadza dane, potem rozgrywana jest logika przeciwników, a na końcu świat jest aktualizowany.</t>
+  </si>
+  <si>
     <t>Plansza/mapa opata o siatkę</t>
   </si>
   <si>
+    <t>Gra korzysta z systemu siatki, co ułatwia nawigację i orientację w ciemnych środowiskach.</t>
+  </si>
+  <si>
     <t>Niemodalność</t>
   </si>
   <si>
+    <t>Rozgrywka płynnie przechodzi bez częstych zmian trybu, co zwiększa immersję.</t>
+  </si>
+  <si>
     <t>Złożoność</t>
   </si>
   <si>
+    <t>Połączenie zagadek, typów przeciwników i interakcji z otoczeniem tworzy głębię i wyzwanie.</t>
+  </si>
+  <si>
     <t>Zarządzanie zasobami / ekwipunek</t>
   </si>
   <si>
+    <t>Gracze muszą zarządzać ograniczonymi zasobami, takimi jak amunicja i pochodnie, co wymusza strategiczne podejście.</t>
+  </si>
+  <si>
     <t>Hack'n'slash / walka</t>
   </si>
   <si>
+    <t>Gracze angażują się w walkę z różnymi przeciwnikami, równoważąc agresję z zarządzaniem zasobami.</t>
+  </si>
+  <si>
     <t>Eksploracja i odkrywanie</t>
   </si>
   <si>
+    <t>Gra nagradza dokładne eksplorowanie ukrytymi skarbami i lore, co wzbogaca doświadczenie gracza.</t>
+  </si>
+  <si>
     <t>Jeden gracz i jedna postać</t>
   </si>
   <si>
+    <t>Skupienie na podróży Petera Millera pozwala na głęboką rozwój postaci i zaangażowanie narracyjne.</t>
+  </si>
+  <si>
     <t>Potwory podobne do bohatera</t>
   </si>
   <si>
+    <t>Różni wrogowie, którzy tylko częściowo przypominają ludzi (jak mumie lub szkielety), ale także zwierzęta, takie jak nietoperze i szczury.</t>
+  </si>
+  <si>
     <t>Wyzwanie taktyczne</t>
   </si>
   <si>
+    <t>Scenariusze walki wymagają od graczy strategii i przemyślenia działań. Ponieważ bohater nie może walczyć z przeciwnikami, których nie widzi, musi cały czas kontrolować liczbę pochodni i amunicji</t>
+  </si>
+  <si>
     <t>Wyświetlanie ASCII</t>
   </si>
   <si>
+    <t>Styl retro z grafiką ASCII dodaje nostalgii i unikalnej estetyki do gry.</t>
+  </si>
+  <si>
     <t>Podziemia</t>
   </si>
   <si>
+    <t>Nie całkiem pod ziemią, bardziej nad ziemią, ponieważ poziomy piramidy będą wznosić się pod górę.</t>
+  </si>
+  <si>
     <t>Liczby</t>
   </si>
   <si>
+    <t>Statystyki, takie jak liczba sztuk amunicji lub czas działania latarki, a także inne cechy postaci.</t>
+  </si>
+  <si>
     <t>Nieliniowość</t>
   </si>
   <si>
+    <t>Gracze mogą wybierać różne ścieżki, co zapewnia pewien stopień nieliniowej eksploracji w grze.</t>
+  </si>
+  <si>
     <t>Dużo zawartości</t>
   </si>
   <si>
+    <t>Gra zawiera różnorodne relikty i elementy lore, co zapewnia bogate doświadczenie pełne odkryć.</t>
+  </si>
+  <si>
     <t>Losowość wyników</t>
   </si>
   <si>
+    <t>Losowe wydarzenia i wyniki zwiększają nieprzewidywalność, co podnosi zaangażowanie gracza w każdej sesji.</t>
+  </si>
+  <si>
     <t>Rozwój bohatera</t>
   </si>
   <si>
+    <t xml:space="preserve">Gracz może znaleźć różne amulety, które dadzą bohaterowi tarczę, a także poprawią jego umiejętności walki </t>
+  </si>
+  <si>
     <t>Imersja, klimat, atmosfera, …</t>
   </si>
   <si>
+    <t>Ciemne korytarze piramidy, które są wypełnione potworami, brak amunicji i muzyka tworzą opresyjną atmosferę jak w prawdziwym survival horrorze</t>
+  </si>
+  <si>
     <t>Ściśle określone warunki zwycięstwa</t>
+  </si>
+  <si>
+    <t>Głównym celem jest odnalezienie artefaktu - korony Tutanchamona</t>
   </si>
 </sst>
 </file>
@@ -750,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DFE44A-09E5-4666-B09D-B1F4A8D312E9}">
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -762,7 +825,7 @@
     <col min="4" max="7" width="8.5" style="16" customWidth="1"/>
     <col min="8" max="9" width="11" style="16" customWidth="1"/>
     <col min="10" max="10" width="27.75" style="15" customWidth="1"/>
-    <col min="11" max="11" width="40.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="4" customWidth="1"/>
     <col min="12" max="1024" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2827,15 +2890,15 @@
       </c>
       <c r="C3" s="10">
         <f t="shared" si="0"/>
-        <v>0.80952380952380953</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>0.80681818181818177</v>
+        <v>0.83712121212121215</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>0.8529411764705882</v>
+        <v>0.86029411764705888</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
@@ -3941,11 +4004,13 @@
       <c r="J6" s="19">
         <v>4</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:1024" ht="14.25">
       <c r="A7" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7">
         <v>2</v>
@@ -3974,11 +4039,13 @@
       <c r="J7" s="22">
         <v>4</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:1024" ht="14.25">
       <c r="A8" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
@@ -4004,11 +4071,13 @@
       <c r="J8" s="22">
         <v>4</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:1024" ht="14.25">
       <c r="A9" s="21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7">
         <v>2</v>
@@ -4028,11 +4097,13 @@
       <c r="J9" s="22">
         <v>4</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:1024" ht="14.25">
       <c r="A10" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -4052,11 +4123,13 @@
       <c r="J10" s="22">
         <v>3</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:1024" ht="14.25">
       <c r="A11" s="21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
@@ -4076,11 +4149,13 @@
       <c r="J11" s="22">
         <v>3</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:1024" ht="14.25">
       <c r="A12" s="21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>2</v>
@@ -4100,11 +4175,13 @@
       <c r="J12" s="22">
         <v>3</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:1024" ht="14.25">
       <c r="A13" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
         <v>2</v>
@@ -4125,11 +4202,13 @@
       <c r="J13" s="19">
         <v>3</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:1024" ht="14.25">
       <c r="A14" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
@@ -4150,7 +4229,9 @@
       <c r="J14" s="19">
         <v>3</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:1024" ht="14.25">
       <c r="B15" s="7"/>
@@ -4160,13 +4241,10 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" s="7"/>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:1024" ht="14.25">
       <c r="A16" s="21" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -4192,11 +4270,13 @@
       <c r="J16" s="22">
         <v>4</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="14.25">
       <c r="A17" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -4215,13 +4295,15 @@
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="14.25">
       <c r="A18" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -4242,11 +4324,13 @@
       <c r="J18" s="19">
         <v>4</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="14.25">
       <c r="A19" s="21" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -4264,11 +4348,13 @@
       <c r="J19" s="22">
         <v>4</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="14.25">
       <c r="A20" s="21" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
@@ -4282,13 +4368,15 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="J20" s="22">
-        <v>3</v>
-      </c>
-      <c r="K20" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="14.25">
       <c r="A21" s="21" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7">
         <v>1</v>
@@ -4304,11 +4392,13 @@
       <c r="J21" s="22">
         <v>3</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="14.25">
       <c r="A23" s="21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C23" s="16">
         <v>1</v>
@@ -4323,11 +4413,13 @@
       <c r="J23" s="22">
         <v>3</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="14.25">
       <c r="A24" s="21" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C24" s="16">
         <v>1</v>
@@ -4342,11 +4434,13 @@
       <c r="J24" s="22">
         <v>3</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="14.25">
       <c r="A25" s="21" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C25" s="16">
         <v>1</v>
@@ -4360,11 +4454,13 @@
       <c r="J25" s="22">
         <v>4</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="14.25">
       <c r="A26" s="21" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
@@ -4375,11 +4471,13 @@
       <c r="J26" s="22">
         <v>3</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="14.25">
       <c r="A27" s="21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C27" s="16">
         <v>1</v>
@@ -4390,11 +4488,13 @@
       <c r="J27" s="22">
         <v>3</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="14.25">
       <c r="A28" s="21" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
@@ -4403,9 +4503,11 @@
         <v>4</v>
       </c>
       <c r="J28" s="22">
-        <v>2</v>
-      </c>
-      <c r="K28" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
